--- a/biology/Zoologie/Galea_musteloides/Galea_musteloides.xlsx
+++ b/biology/Zoologie/Galea_musteloides/Galea_musteloides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cobaye-belette
-Galea musteloides est une espèce de rongeurs de la famille des Cavidés. Il fait partie du genre Galea qui regroupe les cobayes à dents jaunes. C'est un petit mammifère terrestre d'Amérique du Sud (Argentine, Bolivie, Chili, Paraguay, Pérou)[2]. Il est parfois aussi appelée Cobaye-belette[3].
+Galea musteloides est une espèce de rongeurs de la famille des Cavidés. Il fait partie du genre Galea qui regroupe les cobayes à dents jaunes. C'est un petit mammifère terrestre d'Amérique du Sud (Argentine, Bolivie, Chili, Paraguay, Pérou). Il est parfois aussi appelée Cobaye-belette.
 L'espèce a été décrite pour la première fois en 1833 par le médecin et naturaliste allemand Franz Julius Ferdinand Meyen (1804-1840).
 </t>
         </is>
@@ -513,15 +525,17 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (8 févr. 2013)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (8 févr. 2013) :
 sous-espèce Galea musteloides auceps
 sous-espèce Galea musteloides demissa
 sous-espèce Galea musteloides leucoblephara
 sous-espèce Galea musteloides littoralis
 sous-espèce Galea musteloides musteloides
-Selon NCBI  (8 févr. 2013)[5] :
+Selon NCBI  (8 févr. 2013) :
 sous-espèce Galea musteloides leucoblephara</t>
         </is>
       </c>
